--- a/module7/src/assignment/test/adev-1008_module_7_assignment_v1_test_plan.xlsx
+++ b/module7/src/assignment/test/adev-1008_module_7_assignment_v1_test_plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Disco Broccoli\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discobroccoli/Coding/rrc/term1/programming-1/module7/src/assignment/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B517F167-E94F-4FF5-BF5C-91183C24FCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985F0E4C-DFBD-374B-84AC-A2754EE04D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{29EA830F-5281-40DA-A511-5FCBC8099E49}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="19900" activeTab="1" xr2:uid="{29EA830F-5281-40DA-A511-5FCBC8099E49}"/>
   </bookViews>
   <sheets>
     <sheet name="HockeyPlayer" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
   <si>
     <t>Module 7 Assignment - Test Plan</t>
   </si>
@@ -71,9 +71,6 @@
 number = ?</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Use the getName() method to verify.</t>
   </si>
   <si>
@@ -98,12 +95,6 @@
     <t>HockeyPlayer(String, int, int, int)</t>
   </si>
   <si>
-    <t>name = ?
-number = ?
-goals = ?
-assists = ?</t>
-  </si>
-  <si>
     <t>Player Class Members</t>
   </si>
   <si>
@@ -119,10 +110,6 @@
     <t>Updates the state of name.</t>
   </si>
   <si>
-    <t>Initial state = ?
-name = ?</t>
-  </si>
-  <si>
     <t>getNumber() : int</t>
   </si>
   <si>
@@ -132,10 +119,6 @@
     <t>Updates the state of number.</t>
   </si>
   <si>
-    <t>Initial state = ?
-number = ?</t>
-  </si>
-  <si>
     <t>getGoals() : int</t>
   </si>
   <si>
@@ -148,10 +131,6 @@
     <t>Updates the state of goals.</t>
   </si>
   <si>
-    <t>Initial state = ?
-goals = ?</t>
-  </si>
-  <si>
     <t>getAssists() : int</t>
   </si>
   <si>
@@ -161,10 +140,6 @@
     <t>Updates the state of assists.</t>
   </si>
   <si>
-    <t>Initial state = ?
-assists = ?</t>
-  </si>
-  <si>
     <t>Use the getAssists() method to verify.</t>
   </si>
   <si>
@@ -172,10 +147,6 @@
   </si>
   <si>
     <t>Returns the correct number of points.</t>
-  </si>
-  <si>
-    <t>goals  = ?
-assists = ?</t>
   </si>
   <si>
     <t>toString() : String</t>
@@ -218,10 +189,6 @@
     <t>Updates the state of free throws.</t>
   </si>
   <si>
-    <t>Initial state = ?
-freeThrows = ?</t>
-  </si>
-  <si>
     <t>getFieldGoals() : int</t>
   </si>
   <si>
@@ -231,10 +198,6 @@
     <t>Updates the state of field goals.</t>
   </si>
   <si>
-    <t>Initial state = ?
-fieldGoals = ?</t>
-  </si>
-  <si>
     <t>getThreePointers() : int</t>
   </si>
   <si>
@@ -242,22 +205,6 @@
   </si>
   <si>
     <t>Updates the state of three pointers.</t>
-  </si>
-  <si>
-    <t>Initial state = ?
-threePointers = ?</t>
-  </si>
-  <si>
-    <t>freeThrows = ?
-fieldGoals = ?
-threePointers = ?</t>
-  </si>
-  <si>
-    <t>name = ?
-number = ?
-freeThrows = ?
-fieldGoals = ?
-threePointers = ?</t>
   </si>
   <si>
     <t>name = John Smith
@@ -271,6 +218,75 @@
 number = 8
 goals = 5
 assists = 7</t>
+  </si>
+  <si>
+    <t>Initial state = "John Smith"
+name = "John Snow"</t>
+  </si>
+  <si>
+    <t>John Snow</t>
+  </si>
+  <si>
+    <t>Initial state = 8
+number = 10</t>
+  </si>
+  <si>
+    <t>Initial state = 8
+goals = 10</t>
+  </si>
+  <si>
+    <t>Initial state = 8
+assists = 10</t>
+  </si>
+  <si>
+    <t>goals  = 5
+assists = 7</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>name = John Snow
+number = 8
+goals = 5
+assists =7</t>
+  </si>
+  <si>
+    <t>Hockey Player - John Snow [8], Points: 12</t>
+  </si>
+  <si>
+    <t>Initial state = John Smith
+name = John Snow</t>
+  </si>
+  <si>
+    <t>Initial state = 0
+freeThrows = 10</t>
+  </si>
+  <si>
+    <t>Initial state = 0
+fieldGoals = 7</t>
+  </si>
+  <si>
+    <t>Initial state = 0
+threePointers = 9</t>
+  </si>
+  <si>
+    <t>freeThrows = 8
+fieldGoals = 5
+threePointers = 7</t>
+  </si>
+  <si>
+    <t>name = John Snow
+number = 8
+freeThrows = 8
+fieldGoals = 5
+threePointers = 7</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Basketball Player: John Snow [8], Points: 39</t>
   </si>
 </sst>
 </file>
@@ -281,7 +297,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,7 +402,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -485,6 +501,9 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,9 +528,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -549,7 +568,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -655,7 +674,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -797,7 +816,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -810,31 +829,31 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="61.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:6" ht="23.25">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -847,7 +866,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -867,7 +886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -878,55 +897,55 @@
         <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E5" s="7">
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E6" s="7">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>10</v>
@@ -935,12 +954,12 @@
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="60">
-      <c r="A10" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -949,299 +968,299 @@
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>2</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E11" s="7">
         <v>8</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="60">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>3</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E12" s="7">
         <v>5</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="60">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>4</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E13" s="7">
         <v>7</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
       <c r="D17" s="17"/>
       <c r="E17" s="18"/>
       <c r="F17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="5">
         <v>1</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E21" s="6"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
       <c r="D23" s="17"/>
       <c r="E23" s="18"/>
       <c r="F23" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="E26" s="6">
+        <v>10</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D27" s="21"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="18"/>
       <c r="F29" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D30" s="21"/>
       <c r="E30" s="29"/>
     </row>
-    <row r="32" spans="1:6" ht="30">
+    <row r="32" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B32" s="5">
         <v>1</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
+      </c>
+      <c r="E32" s="7">
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="31" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38" s="5">
         <v>1</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>11</v>
+        <v>63</v>
+      </c>
+      <c r="E38" s="7">
+        <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="41" spans="1:6" ht="30">
+    <row r="41" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="75">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B44" s="5">
         <v>1</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>11</v>
+        <v>66</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>67</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="21"/>
       <c r="E47" s="22"/>
       <c r="F47" s="23"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E48" s="6"/>
     </row>
-    <row r="50" spans="5:5">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" s="24"/>
     </row>
-    <row r="61" spans="5:5">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E61" s="26"/>
     </row>
-    <row r="62" spans="5:5">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E62" s="25"/>
     </row>
-    <row r="63" spans="5:5">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E63" s="25"/>
     </row>
-    <row r="64" spans="5:5">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E64" s="25"/>
     </row>
-    <row r="71" spans="5:5">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E71" s="6"/>
     </row>
-    <row r="74" spans="5:5">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E74" s="6"/>
     </row>
-    <row r="75" spans="5:5">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E75" s="6"/>
     </row>
   </sheetData>
@@ -1260,31 +1279,31 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="61.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:6" ht="23.25">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+    </row>
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1297,7 +1316,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1317,9 +1336,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30">
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1328,361 +1347,361 @@
         <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
+    </row>
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="30">
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E6" s="34">
         <v>0</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E7" s="34">
         <v>0</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>5</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E8" s="34">
         <v>0</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E9" s="24"/>
       <c r="F9" s="33"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E10" s="24"/>
       <c r="F10" s="33"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="16"/>
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
       <c r="F12" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="5">
         <v>1</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E16" s="6"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
       <c r="D18" s="17"/>
       <c r="E18" s="18"/>
       <c r="F18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21" s="5">
         <v>1</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10</v>
       </c>
       <c r="F21" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
       <c r="F24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B27" s="5">
         <v>1</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>11</v>
+        <v>69</v>
+      </c>
+      <c r="E27" s="6">
+        <v>10</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
       <c r="E30" s="18"/>
       <c r="F30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B33" s="5">
         <v>1</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>11</v>
+        <v>70</v>
+      </c>
+      <c r="E33" s="6">
+        <v>7</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="31" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B36" s="15"/>
       <c r="C36" s="16"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
       <c r="F36" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B39" s="5">
         <v>1</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="E39" s="6">
+        <v>9</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B42" s="5">
         <v>1</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B45" s="5">
         <v>1</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="1" customFormat="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="5"/>
       <c r="C47" s="14"/>
       <c r="D47" s="6"/>
       <c r="E47" s="24"/>
     </row>
-    <row r="48" spans="1:6" s="1" customFormat="1">
+    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="5"/>
       <c r="C48" s="14"/>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
     </row>
-    <row r="49" spans="1:5" s="1" customFormat="1">
+    <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="5"/>
       <c r="C49" s="14"/>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
     </row>
-    <row r="50" spans="1:5" s="1" customFormat="1">
+    <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="5"/>
       <c r="C50" s="14"/>
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="57" spans="1:5" s="1" customFormat="1">
+    <row r="57" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="5"/>
       <c r="C57" s="14"/>
       <c r="D57" s="6"/>
       <c r="E57" s="7"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E58" s="26"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E59" s="25"/>
     </row>
-    <row r="60" spans="1:5" s="1" customFormat="1">
+    <row r="60" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="5"/>
       <c r="C60" s="14"/>
       <c r="D60" s="6"/>
       <c r="E60" s="25"/>
     </row>
-    <row r="61" spans="1:5" s="1" customFormat="1">
+    <row r="61" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="5"/>
       <c r="C61" s="14"/>
       <c r="D61" s="6"/>
       <c r="E61" s="25"/>
     </row>
-    <row r="68" spans="5:5">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E68" s="6"/>
     </row>
-    <row r="71" spans="5:5">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E71" s="6"/>
     </row>
-    <row r="72" spans="5:5">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E72" s="6"/>
     </row>
   </sheetData>
